--- a/NotesFromOldProgram/HmiTags.xlsx
+++ b/NotesFromOldProgram/HmiTags.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\J1405-Haynes-SavageSaw\NotesFromOldProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3272454-E7E4-4524-9D62-4E0328080BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84B0CC2-F8D4-485A-8CBE-72F701A1D2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{5D5B336B-95B0-41F4-90D4-E85E99CB1490}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5D5B336B-95B0-41F4-90D4-E85E99CB1490}"/>
   </bookViews>
   <sheets>
     <sheet name="HmiTags" sheetId="1" r:id="rId1"/>
     <sheet name="Alarms" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="X_StateMessages" sheetId="4" r:id="rId3"/>
+    <sheet name="SamQuestions" sheetId="5" r:id="rId4"/>
+    <sheet name="Notes" sheetId="6" r:id="rId5"/>
+    <sheet name="HMI_Screens" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="933">
   <si>
     <t xml:space="preserve">// Separator </t>
   </si>
@@ -2737,13 +2740,97 @@
   </si>
   <si>
     <t>1:BOOL 1_56</t>
+  </si>
+  <si>
+    <t>hmiSFPM</t>
+  </si>
+  <si>
+    <t>hmiDryPass</t>
+  </si>
+  <si>
+    <t>hmiG_Ratio</t>
+  </si>
+  <si>
+    <t>hmiGuagePosition</t>
+  </si>
+  <si>
+    <t>hmiGaugeZeroed</t>
+  </si>
+  <si>
+    <t>hmiGotoPosition</t>
+  </si>
+  <si>
+    <t>hmiHorsePower</t>
+  </si>
+  <si>
+    <t>hmiKerf</t>
+  </si>
+  <si>
+    <t>hmiLastSpeed</t>
+  </si>
+  <si>
+    <t>hmiLastStep</t>
+  </si>
+  <si>
+    <t>hmiLength</t>
+  </si>
+  <si>
+    <t>hmiMultiCut</t>
+  </si>
+  <si>
+    <t>hmiPassCounter</t>
+  </si>
+  <si>
+    <t>hmiSpindleRLPosition</t>
+  </si>
+  <si>
+    <t>hmiSpindlePresActual</t>
+  </si>
+  <si>
+    <t>hmiThickness</t>
+  </si>
+  <si>
+    <t>hmiTraversePosition</t>
+  </si>
+  <si>
+    <t>hmiWetPass</t>
+  </si>
+  <si>
+    <t>hmiWetSpeed</t>
+  </si>
+  <si>
+    <t>hmiWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions for Sam </t>
+  </si>
+  <si>
+    <t>Best method for display faults/Alarms</t>
+  </si>
+  <si>
+    <t>Best Method to display information / States</t>
+  </si>
+  <si>
+    <t>recommended images for Inputs Outputs</t>
+  </si>
+  <si>
+    <t>??Symbol Factory??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t>What is this a structure of arrays??</t>
+  </si>
+  <si>
+    <t>General Layout thoughts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2874,6 +2961,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3220,8 +3315,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3330,6 +3426,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>332952</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4511F42D-3788-BD2F-6E77-673E7369C4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="3380952" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3961,8 +4106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ABE6CB-D2BB-44A3-90F4-0345EF814979}">
   <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7302,7 +7447,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>833</v>
       </c>
@@ -7310,7 +7455,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>835</v>
       </c>
@@ -7318,7 +7463,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>837</v>
       </c>
@@ -7326,7 +7471,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>839</v>
       </c>
@@ -7334,7 +7479,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>841</v>
       </c>
@@ -7342,7 +7487,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>843</v>
       </c>
@@ -7350,167 +7495,227 @@
         <v>844</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>845</v>
       </c>
       <c r="B423" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C423" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>847</v>
       </c>
       <c r="B424" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>849</v>
       </c>
       <c r="B425" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>851</v>
       </c>
       <c r="B426" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C426" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>853</v>
       </c>
       <c r="B427" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C427" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>855</v>
       </c>
       <c r="B428" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>857</v>
       </c>
       <c r="B429" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>859</v>
       </c>
       <c r="B430" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C430" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>861</v>
       </c>
       <c r="B431" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C431" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>863</v>
       </c>
       <c r="B432" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C432" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>865</v>
       </c>
       <c r="B433" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>867</v>
       </c>
       <c r="B434" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C434" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>869</v>
       </c>
       <c r="B435" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C435" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>871</v>
       </c>
       <c r="B436" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C436" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>873</v>
       </c>
       <c r="B437" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>875</v>
       </c>
       <c r="B438" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>877</v>
       </c>
       <c r="B439" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>879</v>
       </c>
       <c r="B440" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>881</v>
       </c>
       <c r="B441" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>883</v>
       </c>
       <c r="B442" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>885</v>
       </c>
@@ -7518,7 +7723,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>887</v>
       </c>
@@ -7526,7 +7731,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>889</v>
       </c>
@@ -7534,7 +7739,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>891</v>
       </c>
@@ -7542,7 +7747,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>893</v>
       </c>
@@ -7550,7 +7755,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>895</v>
       </c>
@@ -7611,11 +7816,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB3628F-2F10-49EE-BD00-BF33884693F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55656F70-04CB-4D5C-801E-FDC54C98A4E8}">
+  <dimension ref="B3:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>928</v>
+      </c>
+      <c r="F10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE176037-BF2A-47F3-8430-42A46B23A4CE}">
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5F0A85-80B5-4384-BA10-9257CB4E8F29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U210" sqref="U210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
